--- a/biology/Médecine/Guido_Bertolaso/Guido_Bertolaso.xlsx
+++ b/biology/Médecine/Guido_Bertolaso/Guido_Bertolaso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guido Bertolaso (né le 20 mars 1950 à Rome) est un ancien fonctionnaire et médecin italien, ancien directeur du département de la Protection civile de la Présidence du Conseil des ministres (2001) et ancien secrétaire d'État à la Présidence du Conseil avec une délégation sur la Crise des déchets à Naples, dans le gouvernement de Silvio Berlusconi (21 mai 2008).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Secrétaire d'État à la Solution de l'urgence des déchets dans la région Campanie et, officieusement, aux « grands événements » ; nommé à Naples le 21 mai 2008, jusqu'au 31 décembre 2009), ensuite à la Coordination de la protection civile au niveau européen et international jusqu'au 11 novembre 2010. En janvier 2010, Berlusconi annonce sa promotion prochaine au rang de ministre du gouvernement. Il finit par prendre sa retraite le 11 novembre 2010 sans avoir été nommé ministre.
 Diplômé docteur en médecine à l'Université de Rome « La Sapienza ».
